--- a/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
+++ b/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhasip\Desktop\NGConsys Automation_01_02_2019\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE81E5-8F6B-404E-A15A-1A6966B44EDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,19 +260,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -674,11 +675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,12 +698,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -711,17 +712,17 @@
       <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -731,13 +732,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="14"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
@@ -788,7 +789,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>16</v>

--- a/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
+++ b/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE81E5-8F6B-404E-A15A-1A6966B44EDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -142,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,7 +553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -675,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,16 +800,16 @@
         <v>29</v>
       </c>
       <c r="H8" s="9">
-        <v>0.25</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="I8" s="9">
-        <v>0.33600000000000002</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="J8" s="9">
-        <v>0.30099999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="K8" s="9">
-        <v>0.38700000000000001</v>
+        <v>0.61199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -819,5 +818,6 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
+++ b/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Color Codes</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Battery Alarm Limits</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
@@ -675,10 +687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,9 +706,11 @@
     <col min="9" max="9" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -704,7 +718,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -716,7 +730,7 @@
       </c>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -726,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -736,13 +750,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -776,8 +790,14 @@
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
@@ -810,6 +830,12 @@
       </c>
       <c r="K8" s="9">
         <v>0.61199999999999999</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
+++ b/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,10 +144,10 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L8" sqref="L8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
+++ b/Test Data/TC_144_145_Verify_Battery_Standby_And_Battery_Alarm_Limits_On_Changing_CPU_And_PSU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF66F841-94FF-46EE-84C7-ACAD9510E7D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Color Codes</t>
   </si>
@@ -108,21 +109,12 @@
     <t/>
   </si>
   <si>
-    <t>CPU 801</t>
-  </si>
-  <si>
     <t>change CPUType</t>
   </si>
   <si>
-    <t>PSU830</t>
-  </si>
-  <si>
     <t>Change PSU</t>
   </si>
   <si>
-    <t>MX1000</t>
-  </si>
-  <si>
     <t>Verify Battery standby and Battery alarm limits after changing CPU/PSU</t>
   </si>
   <si>
@@ -148,12 +140,33 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>PSB800</t>
+  </si>
+  <si>
+    <t>0.250</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>NGC-488/T386 OR TC-144 &amp; 145</t>
+  </si>
+  <si>
+    <t>MX 1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,9 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,6 +289,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -565,7 +581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -686,11 +702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,31 +727,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -744,14 +760,16 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="11"/>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
@@ -773,39 +791,39 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
+      <c r="C8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -813,29 +831,29 @@
       <c r="E8" s="2">
         <v>16</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0.61199999999999999</v>
+        <v>38</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
